--- a/Data_ions/B-ion_data.xlsx
+++ b/Data_ions/B-ion_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Dropbox\Dokument Jobbet Nankai\PROJEKT\Perovskite composition ontology\Code\Data_ions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jesja78\Dropbox\Dokument Jobbet Linköping\PROJECT\Jacobsson - 2023 - Perovskite A cations\Code_v5\Data_ions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BCDC000-9382-47D2-929B-595E64D05DF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10420CEE-7446-441D-B050-19E95B6D8A0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="300" windowWidth="30750" windowHeight="19635" xr2:uid="{05E566B0-E1A5-43EF-B813-2B319AFEAAF3}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{05E566B0-E1A5-43EF-B813-2B319AFEAAF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -173,93 +173,9 @@
     <t>Au</t>
   </si>
   <si>
-    <t>Pb2+</t>
-  </si>
-  <si>
-    <t>Sn2+</t>
-  </si>
-  <si>
-    <t>Bi3+</t>
-  </si>
-  <si>
-    <t>Sb3+</t>
-  </si>
-  <si>
     <t>Ag+</t>
   </si>
   <si>
-    <t>Cu2+</t>
-  </si>
-  <si>
-    <t>Ge2+</t>
-  </si>
-  <si>
-    <t>Sr2+</t>
-  </si>
-  <si>
-    <t>Ba2+</t>
-  </si>
-  <si>
-    <t>Fe2+</t>
-  </si>
-  <si>
-    <t>Co2+</t>
-  </si>
-  <si>
-    <t>Zn2+</t>
-  </si>
-  <si>
-    <t>Ni2+</t>
-  </si>
-  <si>
-    <t>Eu2+</t>
-  </si>
-  <si>
-    <t>Te4+</t>
-  </si>
-  <si>
-    <t>Ca2+</t>
-  </si>
-  <si>
-    <t>Mn2+</t>
-  </si>
-  <si>
-    <t>Hg2+</t>
-  </si>
-  <si>
-    <t>Pt4+</t>
-  </si>
-  <si>
-    <t>Mg2+</t>
-  </si>
-  <si>
-    <t>La3+</t>
-  </si>
-  <si>
-    <t>In3+</t>
-  </si>
-  <si>
-    <t>Tb3+</t>
-  </si>
-  <si>
-    <t>Nb5+</t>
-  </si>
-  <si>
-    <t>Ti4+</t>
-  </si>
-  <si>
-    <t>Y2+</t>
-  </si>
-  <si>
-    <t>Al3+</t>
-  </si>
-  <si>
-    <t>Sm3+</t>
-  </si>
-  <si>
-    <t>Cr3+</t>
-  </si>
-  <si>
     <t>Au+</t>
   </si>
   <si>
@@ -962,9 +878,6 @@
     <t>7440-57-5</t>
   </si>
   <si>
-    <t>Au3+</t>
-  </si>
-  <si>
     <t>Gold(3+)</t>
   </si>
   <si>
@@ -984,6 +897,93 @@
   </si>
   <si>
     <t>7440-06-04</t>
+  </si>
+  <si>
+    <t>Pb+2</t>
+  </si>
+  <si>
+    <t>Sn+2</t>
+  </si>
+  <si>
+    <t>Bi+3</t>
+  </si>
+  <si>
+    <t>Sb+3</t>
+  </si>
+  <si>
+    <t>Cu+2</t>
+  </si>
+  <si>
+    <t>Ge+2</t>
+  </si>
+  <si>
+    <t>Sr+2</t>
+  </si>
+  <si>
+    <t>Ba+2</t>
+  </si>
+  <si>
+    <t>Fe+2</t>
+  </si>
+  <si>
+    <t>Co+2</t>
+  </si>
+  <si>
+    <t>Zn+2</t>
+  </si>
+  <si>
+    <t>Ni+2</t>
+  </si>
+  <si>
+    <t>Eu+2</t>
+  </si>
+  <si>
+    <t>Te+4</t>
+  </si>
+  <si>
+    <t>Ca+2</t>
+  </si>
+  <si>
+    <t>Mn+2</t>
+  </si>
+  <si>
+    <t>Hg+2</t>
+  </si>
+  <si>
+    <t>Pt+4</t>
+  </si>
+  <si>
+    <t>Mg+2</t>
+  </si>
+  <si>
+    <t>La+3</t>
+  </si>
+  <si>
+    <t>In+3</t>
+  </si>
+  <si>
+    <t>Tb+3</t>
+  </si>
+  <si>
+    <t>Nb+5</t>
+  </si>
+  <si>
+    <t>Ti+4</t>
+  </si>
+  <si>
+    <t>Y+2</t>
+  </si>
+  <si>
+    <t>Al+3</t>
+  </si>
+  <si>
+    <t>Sm+3</t>
+  </si>
+  <si>
+    <t>Cr+3</t>
+  </si>
+  <si>
+    <t>Au+3</t>
   </si>
 </sst>
 </file>
@@ -1084,37 +1084,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="19">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1321,6 +1305,36 @@
       </border>
     </dxf>
     <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1344,23 +1358,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1375,33 +1372,33 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{336390EF-A5DF-43A5-B690-73B7900D28F4}" name="Table1" displayName="Table1" ref="A1:O32" totalsRowShown="0" headerRowDxfId="16" dataDxfId="8" headerRowBorderDxfId="17" tableBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{336390EF-A5DF-43A5-B690-73B7900D28F4}" name="Table1" displayName="Table1" ref="A1:O32" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15">
   <autoFilter ref="A1:O32" xr:uid="{336390EF-A5DF-43A5-B690-73B7900D28F4}"/>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{03E4660C-1CEE-4873-89FE-23DBDF309E29}" name="ID" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{09F00080-7CF5-44FF-AFEE-28DE241291EB}" name="Abbreviation" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{0B2D55CD-0BB6-4767-AC8F-929C35DBE7A0}" name="Alternative_abbreviations" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{F8E1B793-4EE1-4E42-9D16-E12F4B13ABC5}" name="Molecular_formula" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{12B5E222-C5AC-4578-8BCE-26A6155C2326}" name="SMILE" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{F9BEEC6A-EE2D-4CDA-8D3A-0E46317A3351}" name="Common_name" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{852CD0BC-C294-40AB-9EB7-D4C84F23B792}" name="IUPAC_name" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{03E4660C-1CEE-4873-89FE-23DBDF309E29}" name="ID" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{09F00080-7CF5-44FF-AFEE-28DE241291EB}" name="Abbreviation" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{0B2D55CD-0BB6-4767-AC8F-929C35DBE7A0}" name="Alternative_abbreviations" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{F8E1B793-4EE1-4E42-9D16-E12F4B13ABC5}" name="Molecular_formula" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{12B5E222-C5AC-4578-8BCE-26A6155C2326}" name="SMILE" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{F9BEEC6A-EE2D-4CDA-8D3A-0E46317A3351}" name="Common_name" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{852CD0BC-C294-40AB-9EB7-D4C84F23B792}" name="IUPAC_name" dataDxfId="8"/>
     <tableColumn id="8" xr3:uid="{48FD5BDD-D30E-46D4-8C61-957981787959}" name="CAS" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{9A64B260-842F-4E26-A95A-C2099A893B75}" name="Parent_IUPAC" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{F9B47D60-0533-4AD5-8441-7176235AFD18}" name="Parent_SMILE" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{9A64B260-842F-4E26-A95A-C2099A893B75}" name="Parent_IUPAC" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{F9B47D60-0533-4AD5-8441-7176235AFD18}" name="Parent_SMILE" dataDxfId="5"/>
     <tableColumn id="11" xr3:uid="{9CB6D70D-FB9E-453A-8C81-AA6A39D24B33}" name="Parent_CAS" dataDxfId="4"/>
-    <tableColumn id="12" xr3:uid="{B60B09FA-AC5A-4A8C-BCAE-AA9B43E14F7C}" name="Common_source_compound" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{B60B09FA-AC5A-4A8C-BCAE-AA9B43E14F7C}" name="Common_source_compound" dataDxfId="3"/>
     <tableColumn id="13" xr3:uid="{D4DEA3F6-3126-4224-BFD9-76041EDF0C01}" name="Source_compound_CAS" dataDxfId="2"/>
-    <tableColumn id="14" xr3:uid="{1C90F590-B604-4B56-99C9-F49F88776E57}" name="Chemical_formula" dataDxfId="0"/>
-    <tableColumn id="15" xr3:uid="{14A6D7E2-CC12-4C93-984F-EA771AA0CB16}" name="Number_of_occurances" dataDxfId="9"/>
+    <tableColumn id="14" xr3:uid="{1C90F590-B604-4B56-99C9-F49F88776E57}" name="Chemical_formula" dataDxfId="1"/>
+    <tableColumn id="15" xr3:uid="{14A6D7E2-CC12-4C93-984F-EA771AA0CB16}" name="Number_of_occurances" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1439,7 +1436,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1545,7 +1542,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1687,7 +1684,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1695,10 +1692,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18FB2689-D695-4112-B27F-B5DF90AD560C}">
-  <dimension ref="A1:O46"/>
+  <dimension ref="A1:O39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1769,44 +1766,43 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="H2" s="5" t="s">
+      <c r="D2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J2" t="s">
+        <v>223</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="L2" t="s">
         <v>165</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="O2" s="5">
+      <c r="M2" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="N2" t="s">
+        <v>287</v>
+      </c>
+      <c r="O2">
         <v>42297</v>
       </c>
     </row>
@@ -1814,44 +1810,43 @@
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="O3" s="5">
+      <c r="D3" t="s">
+        <v>288</v>
+      </c>
+      <c r="E3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J3" t="s">
+        <v>224</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="L3" t="s">
+        <v>167</v>
+      </c>
+      <c r="M3" t="s">
+        <v>168</v>
+      </c>
+      <c r="N3" t="s">
+        <v>288</v>
+      </c>
+      <c r="O3">
         <v>1223</v>
       </c>
     </row>
@@ -1859,44 +1854,43 @@
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="O4" s="5">
+      <c r="D4" t="s">
+        <v>289</v>
+      </c>
+      <c r="E4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J4" t="s">
+        <v>225</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="L4" t="s">
+        <v>169</v>
+      </c>
+      <c r="M4" t="s">
+        <v>170</v>
+      </c>
+      <c r="N4" t="s">
+        <v>289</v>
+      </c>
+      <c r="O4">
         <v>366</v>
       </c>
     </row>
@@ -1904,44 +1898,43 @@
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="O5" s="5">
+      <c r="D5" t="s">
+        <v>290</v>
+      </c>
+      <c r="E5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H5" t="s">
+        <v>140</v>
+      </c>
+      <c r="I5" t="s">
+        <v>83</v>
+      </c>
+      <c r="J5" t="s">
+        <v>226</v>
+      </c>
+      <c r="K5" t="s">
+        <v>256</v>
+      </c>
+      <c r="L5" t="s">
+        <v>171</v>
+      </c>
+      <c r="M5" t="s">
+        <v>172</v>
+      </c>
+      <c r="N5" t="s">
+        <v>290</v>
+      </c>
+      <c r="O5">
         <v>137</v>
       </c>
     </row>
@@ -1949,44 +1942,43 @@
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="O6" s="5">
+      <c r="D6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H6" t="s">
+        <v>141</v>
+      </c>
+      <c r="I6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" t="s">
+        <v>227</v>
+      </c>
+      <c r="K6" t="s">
+        <v>257</v>
+      </c>
+      <c r="L6" t="s">
+        <v>173</v>
+      </c>
+      <c r="M6" t="s">
+        <v>174</v>
+      </c>
+      <c r="N6" t="s">
+        <v>45</v>
+      </c>
+      <c r="O6">
         <v>57</v>
       </c>
     </row>
@@ -1994,44 +1986,43 @@
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="O7" s="5">
+      <c r="D7" t="s">
+        <v>291</v>
+      </c>
+      <c r="E7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H7" t="s">
+        <v>142</v>
+      </c>
+      <c r="I7" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K7" t="s">
+        <v>258</v>
+      </c>
+      <c r="L7" t="s">
+        <v>175</v>
+      </c>
+      <c r="M7" t="s">
+        <v>176</v>
+      </c>
+      <c r="N7" t="s">
+        <v>291</v>
+      </c>
+      <c r="O7">
         <v>28</v>
       </c>
     </row>
@@ -2039,42 +2030,40 @@
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="O8" s="5">
+      <c r="D8" t="s">
+        <v>292</v>
+      </c>
+      <c r="E8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" t="s">
+        <v>90</v>
+      </c>
+      <c r="I8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" t="s">
+        <v>229</v>
+      </c>
+      <c r="K8" t="s">
+        <v>259</v>
+      </c>
+      <c r="L8" t="s">
+        <v>177</v>
+      </c>
+      <c r="M8" t="s">
+        <v>178</v>
+      </c>
+      <c r="N8" t="s">
+        <v>292</v>
+      </c>
+      <c r="O8">
         <v>21</v>
       </c>
     </row>
@@ -2082,44 +2071,43 @@
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="N9" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="O9" s="5">
+      <c r="D9" t="s">
+        <v>293</v>
+      </c>
+      <c r="E9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" t="s">
+        <v>92</v>
+      </c>
+      <c r="H9" t="s">
+        <v>143</v>
+      </c>
+      <c r="I9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J9" t="s">
+        <v>230</v>
+      </c>
+      <c r="K9" t="s">
+        <v>260</v>
+      </c>
+      <c r="L9" t="s">
+        <v>179</v>
+      </c>
+      <c r="M9" t="s">
+        <v>180</v>
+      </c>
+      <c r="N9" t="s">
+        <v>293</v>
+      </c>
+      <c r="O9">
         <v>20</v>
       </c>
     </row>
@@ -2127,44 +2115,43 @@
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="O10" s="5">
+      <c r="D10" t="s">
+        <v>294</v>
+      </c>
+      <c r="E10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" t="s">
+        <v>93</v>
+      </c>
+      <c r="G10" t="s">
+        <v>94</v>
+      </c>
+      <c r="H10" t="s">
+        <v>144</v>
+      </c>
+      <c r="I10" t="s">
+        <v>93</v>
+      </c>
+      <c r="J10" t="s">
+        <v>231</v>
+      </c>
+      <c r="K10" t="s">
+        <v>261</v>
+      </c>
+      <c r="L10" t="s">
+        <v>181</v>
+      </c>
+      <c r="M10" t="s">
+        <v>182</v>
+      </c>
+      <c r="N10" t="s">
+        <v>294</v>
+      </c>
+      <c r="O10">
         <v>20</v>
       </c>
     </row>
@@ -2172,44 +2159,43 @@
       <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="N11" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="O11" s="5">
+      <c r="D11" t="s">
+        <v>295</v>
+      </c>
+      <c r="E11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" t="s">
+        <v>95</v>
+      </c>
+      <c r="G11" t="s">
+        <v>96</v>
+      </c>
+      <c r="H11" t="s">
+        <v>145</v>
+      </c>
+      <c r="I11" t="s">
+        <v>95</v>
+      </c>
+      <c r="J11" t="s">
+        <v>232</v>
+      </c>
+      <c r="K11" t="s">
+        <v>262</v>
+      </c>
+      <c r="L11" t="s">
+        <v>183</v>
+      </c>
+      <c r="M11" t="s">
+        <v>184</v>
+      </c>
+      <c r="N11" t="s">
+        <v>295</v>
+      </c>
+      <c r="O11">
         <v>19</v>
       </c>
     </row>
@@ -2217,44 +2203,43 @@
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="M12" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="N12" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="O12" s="5">
+      <c r="D12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" t="s">
+        <v>97</v>
+      </c>
+      <c r="G12" t="s">
+        <v>98</v>
+      </c>
+      <c r="H12" t="s">
+        <v>146</v>
+      </c>
+      <c r="I12" t="s">
+        <v>97</v>
+      </c>
+      <c r="J12" t="s">
+        <v>233</v>
+      </c>
+      <c r="K12" t="s">
+        <v>263</v>
+      </c>
+      <c r="L12" t="s">
+        <v>185</v>
+      </c>
+      <c r="M12" t="s">
+        <v>186</v>
+      </c>
+      <c r="N12" t="s">
+        <v>296</v>
+      </c>
+      <c r="O12">
         <v>15</v>
       </c>
     </row>
@@ -2262,44 +2247,43 @@
       <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="M13" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="N13" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="O13" s="5">
+      <c r="D13" t="s">
+        <v>297</v>
+      </c>
+      <c r="E13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" t="s">
+        <v>99</v>
+      </c>
+      <c r="G13" t="s">
+        <v>100</v>
+      </c>
+      <c r="H13" t="s">
+        <v>147</v>
+      </c>
+      <c r="I13" t="s">
+        <v>99</v>
+      </c>
+      <c r="J13" t="s">
+        <v>234</v>
+      </c>
+      <c r="K13" t="s">
+        <v>264</v>
+      </c>
+      <c r="L13" t="s">
+        <v>187</v>
+      </c>
+      <c r="M13" t="s">
+        <v>188</v>
+      </c>
+      <c r="N13" t="s">
+        <v>297</v>
+      </c>
+      <c r="O13">
         <v>14</v>
       </c>
     </row>
@@ -2307,44 +2291,43 @@
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="M14" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="N14" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="O14" s="5">
+      <c r="D14" t="s">
+        <v>298</v>
+      </c>
+      <c r="E14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" t="s">
+        <v>101</v>
+      </c>
+      <c r="G14" t="s">
+        <v>102</v>
+      </c>
+      <c r="H14" t="s">
+        <v>148</v>
+      </c>
+      <c r="I14" t="s">
+        <v>101</v>
+      </c>
+      <c r="J14" t="s">
+        <v>235</v>
+      </c>
+      <c r="K14" t="s">
+        <v>265</v>
+      </c>
+      <c r="L14" t="s">
+        <v>189</v>
+      </c>
+      <c r="M14" t="s">
+        <v>190</v>
+      </c>
+      <c r="N14" t="s">
+        <v>298</v>
+      </c>
+      <c r="O14">
         <v>12</v>
       </c>
     </row>
@@ -2352,44 +2335,43 @@
       <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="M15" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="N15" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="O15" s="5">
+      <c r="D15" t="s">
+        <v>299</v>
+      </c>
+      <c r="E15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" t="s">
+        <v>103</v>
+      </c>
+      <c r="G15" t="s">
+        <v>104</v>
+      </c>
+      <c r="H15" t="s">
+        <v>149</v>
+      </c>
+      <c r="I15" t="s">
+        <v>103</v>
+      </c>
+      <c r="J15" t="s">
+        <v>236</v>
+      </c>
+      <c r="K15" t="s">
+        <v>266</v>
+      </c>
+      <c r="L15" t="s">
+        <v>191</v>
+      </c>
+      <c r="M15" t="s">
+        <v>192</v>
+      </c>
+      <c r="N15" t="s">
+        <v>299</v>
+      </c>
+      <c r="O15">
         <v>12</v>
       </c>
     </row>
@@ -2397,44 +2379,43 @@
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="M16" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="N16" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="O16" s="5">
+      <c r="D16" t="s">
+        <v>300</v>
+      </c>
+      <c r="E16" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" t="s">
+        <v>105</v>
+      </c>
+      <c r="G16" t="s">
+        <v>106</v>
+      </c>
+      <c r="H16" t="s">
+        <v>150</v>
+      </c>
+      <c r="I16" t="s">
+        <v>105</v>
+      </c>
+      <c r="J16" t="s">
+        <v>237</v>
+      </c>
+      <c r="K16" t="s">
+        <v>267</v>
+      </c>
+      <c r="L16" t="s">
+        <v>193</v>
+      </c>
+      <c r="M16" t="s">
+        <v>194</v>
+      </c>
+      <c r="N16" t="s">
+        <v>300</v>
+      </c>
+      <c r="O16">
         <v>11</v>
       </c>
     </row>
@@ -2442,44 +2423,43 @@
       <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="M17" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="N17" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="O17" s="5">
+      <c r="D17" t="s">
+        <v>301</v>
+      </c>
+      <c r="E17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" t="s">
+        <v>107</v>
+      </c>
+      <c r="G17" t="s">
+        <v>108</v>
+      </c>
+      <c r="H17" t="s">
+        <v>151</v>
+      </c>
+      <c r="I17" t="s">
+        <v>107</v>
+      </c>
+      <c r="J17" t="s">
+        <v>238</v>
+      </c>
+      <c r="K17" t="s">
+        <v>268</v>
+      </c>
+      <c r="L17" t="s">
+        <v>195</v>
+      </c>
+      <c r="M17" t="s">
+        <v>196</v>
+      </c>
+      <c r="N17" t="s">
+        <v>301</v>
+      </c>
+      <c r="O17">
         <v>10</v>
       </c>
     </row>
@@ -2487,44 +2467,43 @@
       <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="M18" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="N18" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="O18" s="5">
+      <c r="D18" t="s">
+        <v>302</v>
+      </c>
+      <c r="E18" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" t="s">
+        <v>109</v>
+      </c>
+      <c r="G18" t="s">
+        <v>110</v>
+      </c>
+      <c r="H18" t="s">
+        <v>152</v>
+      </c>
+      <c r="I18" t="s">
+        <v>109</v>
+      </c>
+      <c r="J18" t="s">
+        <v>239</v>
+      </c>
+      <c r="K18" t="s">
+        <v>269</v>
+      </c>
+      <c r="L18" t="s">
+        <v>197</v>
+      </c>
+      <c r="M18" t="s">
+        <v>198</v>
+      </c>
+      <c r="N18" t="s">
+        <v>302</v>
+      </c>
+      <c r="O18">
         <v>10</v>
       </c>
     </row>
@@ -2532,44 +2511,43 @@
       <c r="A19" s="4">
         <v>18</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="L19" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="M19" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="N19" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="O19" s="5">
+      <c r="D19" t="s">
+        <v>303</v>
+      </c>
+      <c r="E19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" t="s">
+        <v>111</v>
+      </c>
+      <c r="G19" t="s">
+        <v>112</v>
+      </c>
+      <c r="H19" t="s">
+        <v>153</v>
+      </c>
+      <c r="I19" t="s">
+        <v>111</v>
+      </c>
+      <c r="J19" t="s">
+        <v>240</v>
+      </c>
+      <c r="K19" t="s">
+        <v>270</v>
+      </c>
+      <c r="L19" t="s">
+        <v>199</v>
+      </c>
+      <c r="M19" t="s">
+        <v>200</v>
+      </c>
+      <c r="N19" t="s">
+        <v>303</v>
+      </c>
+      <c r="O19">
         <v>8</v>
       </c>
     </row>
@@ -2577,44 +2555,43 @@
       <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="K20" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="L20" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="M20" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="N20" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="O20" s="5">
+      <c r="D20" t="s">
+        <v>304</v>
+      </c>
+      <c r="E20" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" t="s">
+        <v>113</v>
+      </c>
+      <c r="G20" t="s">
+        <v>114</v>
+      </c>
+      <c r="H20" t="s">
+        <v>154</v>
+      </c>
+      <c r="I20" t="s">
+        <v>113</v>
+      </c>
+      <c r="J20" t="s">
+        <v>241</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="L20" t="s">
+        <v>201</v>
+      </c>
+      <c r="M20" t="s">
+        <v>202</v>
+      </c>
+      <c r="N20" t="s">
+        <v>304</v>
+      </c>
+      <c r="O20">
         <v>7</v>
       </c>
     </row>
@@ -2622,44 +2599,43 @@
       <c r="A21" s="4">
         <v>20</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="L21" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="M21" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="N21" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="O21" s="5">
+      <c r="D21" t="s">
+        <v>305</v>
+      </c>
+      <c r="E21" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" t="s">
+        <v>115</v>
+      </c>
+      <c r="G21" t="s">
+        <v>116</v>
+      </c>
+      <c r="H21" t="s">
+        <v>155</v>
+      </c>
+      <c r="I21" t="s">
+        <v>115</v>
+      </c>
+      <c r="J21" t="s">
+        <v>242</v>
+      </c>
+      <c r="K21" t="s">
+        <v>271</v>
+      </c>
+      <c r="L21" t="s">
+        <v>203</v>
+      </c>
+      <c r="M21" t="s">
+        <v>204</v>
+      </c>
+      <c r="N21" t="s">
+        <v>305</v>
+      </c>
+      <c r="O21">
         <v>6</v>
       </c>
     </row>
@@ -2667,44 +2643,43 @@
       <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="L22" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="M22" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="N22" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="O22" s="5">
+      <c r="D22" t="s">
+        <v>306</v>
+      </c>
+      <c r="E22" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" t="s">
+        <v>117</v>
+      </c>
+      <c r="G22" t="s">
+        <v>118</v>
+      </c>
+      <c r="H22" t="s">
+        <v>156</v>
+      </c>
+      <c r="I22" t="s">
+        <v>117</v>
+      </c>
+      <c r="J22" t="s">
+        <v>243</v>
+      </c>
+      <c r="K22" t="s">
+        <v>272</v>
+      </c>
+      <c r="L22" t="s">
+        <v>205</v>
+      </c>
+      <c r="M22" t="s">
+        <v>206</v>
+      </c>
+      <c r="N22" t="s">
+        <v>306</v>
+      </c>
+      <c r="O22">
         <v>6</v>
       </c>
     </row>
@@ -2712,44 +2687,43 @@
       <c r="A23" s="4">
         <v>22</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="L23" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="M23" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="N23" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="O23" s="5">
+      <c r="D23" t="s">
+        <v>307</v>
+      </c>
+      <c r="E23" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" t="s">
+        <v>119</v>
+      </c>
+      <c r="G23" t="s">
+        <v>120</v>
+      </c>
+      <c r="H23" t="s">
+        <v>157</v>
+      </c>
+      <c r="I23" t="s">
+        <v>119</v>
+      </c>
+      <c r="J23" t="s">
+        <v>244</v>
+      </c>
+      <c r="K23" t="s">
+        <v>273</v>
+      </c>
+      <c r="L23" t="s">
+        <v>207</v>
+      </c>
+      <c r="M23" t="s">
+        <v>208</v>
+      </c>
+      <c r="N23" t="s">
+        <v>307</v>
+      </c>
+      <c r="O23">
         <v>5</v>
       </c>
     </row>
@@ -2757,44 +2731,43 @@
       <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="K24" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="L24" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="M24" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="N24" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="O24" s="5">
+      <c r="D24" t="s">
+        <v>308</v>
+      </c>
+      <c r="E24" t="s">
+        <v>69</v>
+      </c>
+      <c r="F24" t="s">
+        <v>121</v>
+      </c>
+      <c r="G24" t="s">
+        <v>122</v>
+      </c>
+      <c r="H24" t="s">
+        <v>158</v>
+      </c>
+      <c r="I24" t="s">
+        <v>121</v>
+      </c>
+      <c r="J24" t="s">
+        <v>245</v>
+      </c>
+      <c r="K24" t="s">
+        <v>274</v>
+      </c>
+      <c r="L24" t="s">
+        <v>209</v>
+      </c>
+      <c r="M24" t="s">
+        <v>210</v>
+      </c>
+      <c r="N24" t="s">
+        <v>308</v>
+      </c>
+      <c r="O24">
         <v>4</v>
       </c>
     </row>
@@ -2802,44 +2775,43 @@
       <c r="A25" s="4">
         <v>24</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>314</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="J25" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="K25" s="9" t="s">
-        <v>314</v>
-      </c>
-      <c r="L25" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="M25" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="N25" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="O25" s="5">
+      <c r="D25" t="s">
+        <v>309</v>
+      </c>
+      <c r="E25" t="s">
+        <v>70</v>
+      </c>
+      <c r="F25" t="s">
+        <v>123</v>
+      </c>
+      <c r="G25" t="s">
+        <v>124</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="I25" t="s">
+        <v>123</v>
+      </c>
+      <c r="J25" t="s">
+        <v>246</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="L25" t="s">
+        <v>211</v>
+      </c>
+      <c r="M25" t="s">
+        <v>212</v>
+      </c>
+      <c r="N25" t="s">
+        <v>309</v>
+      </c>
+      <c r="O25">
         <v>4</v>
       </c>
     </row>
@@ -2847,44 +2819,43 @@
       <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="J26" s="5" t="s">
+      <c r="D26" t="s">
+        <v>310</v>
+      </c>
+      <c r="E26" t="s">
+        <v>71</v>
+      </c>
+      <c r="F26" t="s">
+        <v>125</v>
+      </c>
+      <c r="G26" t="s">
+        <v>126</v>
+      </c>
+      <c r="H26" t="s">
+        <v>159</v>
+      </c>
+      <c r="I26" t="s">
+        <v>125</v>
+      </c>
+      <c r="J26" t="s">
+        <v>247</v>
+      </c>
+      <c r="K26" t="s">
         <v>275</v>
       </c>
-      <c r="K26" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="L26" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="M26" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="N26" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="O26" s="5">
+      <c r="L26" t="s">
+        <v>213</v>
+      </c>
+      <c r="M26" t="s">
+        <v>214</v>
+      </c>
+      <c r="N26" t="s">
+        <v>310</v>
+      </c>
+      <c r="O26">
         <v>3</v>
       </c>
     </row>
@@ -2892,44 +2863,43 @@
       <c r="A27" s="4">
         <v>26</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="J27" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="K27" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="L27" s="5" t="s">
+      <c r="D27" t="s">
+        <v>311</v>
+      </c>
+      <c r="E27" t="s">
+        <v>72</v>
+      </c>
+      <c r="F27" t="s">
+        <v>127</v>
+      </c>
+      <c r="G27" t="s">
+        <v>128</v>
+      </c>
+      <c r="H27" t="s">
+        <v>160</v>
+      </c>
+      <c r="I27" t="s">
+        <v>127</v>
+      </c>
+      <c r="J27" t="s">
+        <v>248</v>
+      </c>
+      <c r="K27" t="s">
+        <v>160</v>
+      </c>
+      <c r="L27" t="s">
         <v>40</v>
       </c>
-      <c r="M27" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="N27" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="O27" s="5">
+      <c r="M27" t="s">
+        <v>160</v>
+      </c>
+      <c r="N27" t="s">
+        <v>311</v>
+      </c>
+      <c r="O27">
         <v>2</v>
       </c>
     </row>
@@ -2937,44 +2907,43 @@
       <c r="A28" s="3">
         <v>27</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="J28" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="K28" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="L28" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="M28" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="N28" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="O28" s="5">
+      <c r="D28" t="s">
+        <v>312</v>
+      </c>
+      <c r="E28" t="s">
+        <v>73</v>
+      </c>
+      <c r="F28" t="s">
+        <v>129</v>
+      </c>
+      <c r="G28" t="s">
+        <v>130</v>
+      </c>
+      <c r="H28" t="s">
+        <v>161</v>
+      </c>
+      <c r="I28" t="s">
+        <v>129</v>
+      </c>
+      <c r="J28" t="s">
+        <v>249</v>
+      </c>
+      <c r="K28" t="s">
+        <v>276</v>
+      </c>
+      <c r="L28" t="s">
+        <v>215</v>
+      </c>
+      <c r="M28" t="s">
+        <v>216</v>
+      </c>
+      <c r="N28" t="s">
+        <v>312</v>
+      </c>
+      <c r="O28">
         <v>1</v>
       </c>
     </row>
@@ -2982,44 +2951,43 @@
       <c r="A29" s="4">
         <v>28</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="J29" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="K29" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="L29" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="M29" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="N29" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="O29" s="5">
+      <c r="D29" t="s">
+        <v>313</v>
+      </c>
+      <c r="E29" t="s">
+        <v>74</v>
+      </c>
+      <c r="F29" t="s">
+        <v>131</v>
+      </c>
+      <c r="G29" t="s">
+        <v>132</v>
+      </c>
+      <c r="H29" t="s">
+        <v>162</v>
+      </c>
+      <c r="I29" t="s">
+        <v>131</v>
+      </c>
+      <c r="J29" t="s">
+        <v>250</v>
+      </c>
+      <c r="K29" t="s">
+        <v>277</v>
+      </c>
+      <c r="L29" t="s">
+        <v>217</v>
+      </c>
+      <c r="M29" t="s">
+        <v>218</v>
+      </c>
+      <c r="N29" t="s">
+        <v>313</v>
+      </c>
+      <c r="O29">
         <v>1</v>
       </c>
     </row>
@@ -3027,44 +2995,43 @@
       <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="J30" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="K30" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="L30" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="M30" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="N30" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="O30" s="5">
+      <c r="D30" t="s">
+        <v>314</v>
+      </c>
+      <c r="E30" t="s">
+        <v>75</v>
+      </c>
+      <c r="F30" t="s">
+        <v>133</v>
+      </c>
+      <c r="G30" t="s">
+        <v>134</v>
+      </c>
+      <c r="H30" t="s">
+        <v>163</v>
+      </c>
+      <c r="I30" t="s">
+        <v>133</v>
+      </c>
+      <c r="J30" t="s">
+        <v>251</v>
+      </c>
+      <c r="K30" t="s">
+        <v>278</v>
+      </c>
+      <c r="L30" t="s">
+        <v>219</v>
+      </c>
+      <c r="M30" t="s">
+        <v>220</v>
+      </c>
+      <c r="N30" t="s">
+        <v>314</v>
+      </c>
+      <c r="O30">
         <v>1</v>
       </c>
     </row>
@@ -3072,44 +3039,43 @@
       <c r="A31" s="4">
         <v>30</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G31" s="5" t="s">
+      <c r="D31" t="s">
+        <v>46</v>
+      </c>
+      <c r="E31" t="s">
+        <v>76</v>
+      </c>
+      <c r="F31" t="s">
+        <v>135</v>
+      </c>
+      <c r="G31" t="s">
+        <v>136</v>
+      </c>
+      <c r="H31" t="s">
         <v>164</v>
       </c>
-      <c r="H31" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="J31" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="K31" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="L31" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="M31" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="N31" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="O31" s="5">
+      <c r="I31" t="s">
+        <v>135</v>
+      </c>
+      <c r="J31" t="s">
+        <v>252</v>
+      </c>
+      <c r="K31" t="s">
+        <v>279</v>
+      </c>
+      <c r="L31" t="s">
+        <v>221</v>
+      </c>
+      <c r="M31" t="s">
+        <v>222</v>
+      </c>
+      <c r="N31" t="s">
+        <v>46</v>
+      </c>
+      <c r="O31">
         <v>1</v>
       </c>
     </row>
@@ -3117,123 +3083,52 @@
       <c r="A32" s="3">
         <v>31</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="I32" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="J32" s="6" t="s">
+      <c r="D32" t="s">
+        <v>315</v>
+      </c>
+      <c r="E32" t="s">
+        <v>283</v>
+      </c>
+      <c r="F32" t="s">
+        <v>135</v>
+      </c>
+      <c r="G32" t="s">
         <v>280</v>
       </c>
-      <c r="K32" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="L32" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="M32" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="N32" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="O32" s="6">
+      <c r="H32" t="s">
+        <v>281</v>
+      </c>
+      <c r="I32" t="s">
+        <v>135</v>
+      </c>
+      <c r="J32" t="s">
+        <v>252</v>
+      </c>
+      <c r="K32" t="s">
+        <v>279</v>
+      </c>
+      <c r="L32" t="s">
+        <v>282</v>
+      </c>
+      <c r="M32" t="s">
+        <v>284</v>
+      </c>
+      <c r="N32" t="s">
+        <v>315</v>
+      </c>
+      <c r="O32">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="10"/>
-    </row>
-    <row r="37" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10"/>
-    </row>
-    <row r="38" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H38" s="10"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="11"/>
-      <c r="L38" s="10"/>
-    </row>
-    <row r="39" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="11"/>
-      <c r="L39" s="10"/>
-    </row>
-    <row r="40" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
-    </row>
-    <row r="41" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
-    </row>
-    <row r="42" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="10"/>
-    </row>
-    <row r="43" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="10"/>
-    </row>
-    <row r="44" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="10"/>
-      <c r="L44" s="10"/>
-    </row>
-    <row r="45" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10"/>
-      <c r="L45" s="10"/>
-    </row>
-    <row r="46" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10"/>
-      <c r="L46" s="10"/>
+    <row r="38" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I38" s="8"/>
+      <c r="K38" s="8"/>
+    </row>
+    <row r="39" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="K39" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
